--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>物品名称</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>是否开票（开票了打钩）</t>
   </si>
   <si>
     <t>驺吾图传</t>
@@ -68,6 +71,18 @@
   <si>
     <t>还未队内A钱，运费8</t>
   </si>
+  <si>
+    <t>F车模</t>
+  </si>
+  <si>
+    <t>博思威龙</t>
+  </si>
+  <si>
+    <t>2022.11.13</t>
+  </si>
+  <si>
+    <t>还未队内A钱，运费到付13块</t>
+  </si>
 </sst>
 </file>
 
@@ -79,22 +94,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,165 +558,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,22 +1061,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5648148148148" customWidth="1"/>
     <col min="2" max="2" width="14.4814814814815" customWidth="1"/>
     <col min="3" max="3" width="11.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="12.2592592592593" customWidth="1"/>
     <col min="6" max="6" width="27.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="23.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,69 +1093,1626 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>380</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10548"/>
+    <workbookView windowWidth="21660" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,25 +63,25 @@
     <t>2022.11.6</t>
   </si>
   <si>
-    <t>还未队内A钱</t>
+    <t>队内A钱</t>
   </si>
   <si>
     <t>170度广角摄像头镜头</t>
   </si>
   <si>
-    <t>还未队内A钱，运费8</t>
+    <t>队内A钱，运费8</t>
   </si>
   <si>
     <t>F车模</t>
   </si>
   <si>
-    <t>博思威龙</t>
+    <t>逐飞科技</t>
   </si>
   <si>
-    <t>2022.11.13</t>
+    <t>2022.11.19</t>
   </si>
   <si>
-    <t>还未队内A钱，运费到付13块</t>
+    <t>运费8块，发了群收款</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21660" windowHeight="10548"/>
+    <workbookView windowWidth="21468" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>物品名称</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>运费8块，发了群收款</t>
+  </si>
+  <si>
+    <t>M3*12、M3*14内六角螺丝</t>
+  </si>
+  <si>
+    <t>佰瑞特旗舰店</t>
+  </si>
+  <si>
+    <t>2022.11.28</t>
+  </si>
+  <si>
+    <t>群收款</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1081,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5648148148148" customWidth="1"/>
-    <col min="2" max="2" width="14.4814814814815" customWidth="1"/>
+    <col min="1" max="1" width="31.8703703703704" customWidth="1"/>
+    <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="11.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="12.2592592592593" customWidth="1"/>
     <col min="6" max="6" width="27.3425925925926" customWidth="1"/>
@@ -1185,12 +1197,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21468" windowHeight="10548"/>
+    <workbookView windowWidth="21480" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>物品名称</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>群收款</t>
+  </si>
+  <si>
+    <t>主板V1*5</t>
+  </si>
+  <si>
+    <t>嘉立创</t>
+  </si>
+  <si>
+    <t>2022.12.7</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1085,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1218,12 +1227,24 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700D76AA-9950-4F5D-8ADC-A8F7E2882652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="10535"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>物品名称</t>
   </si>
@@ -103,19 +109,25 @@
   </si>
   <si>
     <t>2022.12.7</t>
+  </si>
+  <si>
+    <t>电磁板</t>
+  </si>
+  <si>
+    <t>2022.12.2</t>
+  </si>
+  <si>
+    <t>黄诚钜</t>
+  </si>
+  <si>
+    <t>等元器件到了一起收款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,151 +136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,194 +155,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -476,251 +164,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,61 +181,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1076,29 +478,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.8703703703704" customWidth="1"/>
-    <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="12.2592592592593" customWidth="1"/>
-    <col min="6" max="6" width="27.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="23.2407407407407" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +544,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +565,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +586,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +607,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1226,7 +628,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1247,16 +649,28 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45.36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1265,7 +679,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1274,7 +688,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1283,7 +697,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1292,7 +706,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1301,7 +715,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1310,7 +724,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1319,7 +733,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1328,7 +742,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1337,7 +751,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1346,7 +760,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1355,7 +769,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1364,7 +778,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1373,7 +787,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1382,7 +796,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1391,7 +805,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1400,7 +814,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1409,7 +823,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1418,7 +832,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1427,7 +841,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1436,7 +850,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1445,7 +859,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1454,7 +868,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1463,7 +877,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1472,7 +886,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1481,7 +895,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1490,7 +904,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1499,7 +913,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1508,7 +922,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1517,7 +931,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1526,7 +940,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1535,7 +949,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1544,7 +958,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1553,7 +967,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1562,7 +976,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1571,7 +985,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1580,7 +994,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1589,7 +1003,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1598,7 +1012,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1607,7 +1021,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1616,7 +1030,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1625,7 +1039,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1634,7 +1048,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1643,7 +1057,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1652,7 +1066,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1661,7 +1075,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1670,7 +1084,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1679,7 +1093,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1688,7 +1102,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1697,7 +1111,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1706,7 +1120,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1715,7 +1129,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1724,7 +1138,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1733,7 +1147,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1742,7 +1156,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1751,7 +1165,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1760,7 +1174,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1769,7 +1183,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1778,7 +1192,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1787,7 +1201,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1796,7 +1210,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1805,7 +1219,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1814,7 +1228,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1823,7 +1237,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1832,7 +1246,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1841,7 +1255,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1850,7 +1264,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1859,7 +1273,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1868,7 +1282,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1877,7 +1291,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1886,7 +1300,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1895,7 +1309,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1904,7 +1318,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1913,7 +1327,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1922,7 +1336,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1931,7 +1345,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1940,7 +1354,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1949,7 +1363,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1958,7 +1372,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1967,7 +1381,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1976,7 +1390,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1985,7 +1399,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1994,7 +1408,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2003,7 +1417,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2012,7 +1426,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2021,7 +1435,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2030,7 +1444,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2039,7 +1453,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2048,7 +1462,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2057,7 +1471,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2066,7 +1480,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2075,7 +1489,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2084,7 +1498,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2093,7 +1507,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2102,7 +1516,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2111,7 +1525,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2120,7 +1534,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2129,7 +1543,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2138,7 +1552,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2147,7 +1561,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2156,7 +1570,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2165,7 +1579,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2174,7 +1588,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2183,7 +1597,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2192,7 +1606,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2201,7 +1615,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2210,7 +1624,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2219,7 +1633,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2228,7 +1642,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2237,7 +1651,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2246,7 +1660,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2255,7 +1669,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2264,7 +1678,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2273,7 +1687,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2282,7 +1696,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2291,7 +1705,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2300,7 +1714,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2309,7 +1723,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2318,7 +1732,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2327,7 +1741,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2336,7 +1750,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2345,7 +1759,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2354,7 +1768,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2363,7 +1777,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2372,7 +1786,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2381,7 +1795,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2390,7 +1804,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2399,7 +1813,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2408,7 +1822,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2417,7 +1831,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2426,7 +1840,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2435,7 +1849,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2444,7 +1858,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2453,7 +1867,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2462,7 +1876,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2471,7 +1885,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2480,7 +1894,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2489,7 +1903,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2498,7 +1912,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2507,7 +1921,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2516,7 +1930,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2525,7 +1939,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2534,7 +1948,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2543,7 +1957,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2552,7 +1966,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2561,7 +1975,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2570,7 +1984,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2579,7 +1993,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2588,7 +2002,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2597,7 +2011,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2606,7 +2020,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2615,7 +2029,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2624,7 +2038,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2633,7 +2047,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2642,7 +2056,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2651,7 +2065,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2660,7 +2074,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2669,7 +2083,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2678,7 +2092,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2687,7 +2101,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2696,7 +2110,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2705,7 +2119,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2714,7 +2128,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2723,7 +2137,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2732,7 +2146,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2741,7 +2155,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2750,7 +2164,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2760,42 +2174,36 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700D76AA-9950-4F5D-8ADC-A8F7E2882652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>物品名称</t>
   </si>
@@ -121,13 +115,40 @@
   </si>
   <si>
     <t>等元器件到了一起收款</t>
+  </si>
+  <si>
+    <t>砂纸</t>
+  </si>
+  <si>
+    <t>首立家居专营店</t>
+  </si>
+  <si>
+    <t>2022.1.18</t>
+  </si>
+  <si>
+    <t>陈礼锐</t>
+  </si>
+  <si>
+    <t>还没A钱</t>
+  </si>
+  <si>
+    <t>纳米双面胶</t>
+  </si>
+  <si>
+    <t>米乐其办公旗舰店</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +157,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +314,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,9 +509,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -181,17 +768,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,29 +1109,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="21.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="12.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="27.3363636363636" customWidth="1"/>
+    <col min="7" max="7" width="23.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +1154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -544,7 +1175,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -565,7 +1196,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -586,7 +1217,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -607,7 +1238,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -628,7 +1259,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -649,7 +1280,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -670,25 +1301,49 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -697,7 +1352,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -706,7 +1361,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -715,7 +1370,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -724,7 +1379,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -733,7 +1388,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -742,7 +1397,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -751,7 +1406,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -760,7 +1415,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -769,7 +1424,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -778,7 +1433,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -787,7 +1442,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -796,7 +1451,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -805,7 +1460,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -814,7 +1469,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -823,7 +1478,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -832,7 +1487,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -841,7 +1496,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -850,7 +1505,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -859,7 +1514,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -868,7 +1523,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -877,7 +1532,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -886,7 +1541,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -895,7 +1550,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -904,7 +1559,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -913,7 +1568,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -922,7 +1577,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -931,7 +1586,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -940,7 +1595,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -949,7 +1604,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -958,7 +1613,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -967,7 +1622,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -976,7 +1631,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -985,7 +1640,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -994,7 +1649,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1003,7 +1658,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1012,7 +1667,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1021,7 +1676,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1030,7 +1685,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1039,7 +1694,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1048,7 +1703,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1057,7 +1712,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1066,7 +1721,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1075,7 +1730,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1084,7 +1739,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1093,7 +1748,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1102,7 +1757,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1111,7 +1766,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1120,7 +1775,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1129,7 +1784,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1138,7 +1793,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1147,7 +1802,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1156,7 +1811,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1165,7 +1820,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1174,7 +1829,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1183,7 +1838,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1192,7 +1847,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1201,7 +1856,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1210,7 +1865,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1219,7 +1874,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1228,7 +1883,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1237,7 +1892,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1246,7 +1901,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1255,7 +1910,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1264,7 +1919,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1273,7 +1928,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1282,7 +1937,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1291,7 +1946,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1300,7 +1955,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1309,7 +1964,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1318,7 +1973,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1327,7 +1982,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1336,7 +1991,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1345,7 +2000,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1354,7 +2009,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1363,7 +2018,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1372,7 +2027,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1381,7 +2036,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1390,7 +2045,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1399,7 +2054,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1408,7 +2063,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1417,7 +2072,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1426,7 +2081,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1435,7 +2090,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1444,7 +2099,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1453,7 +2108,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1462,7 +2117,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1471,7 +2126,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1480,7 +2135,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1489,7 +2144,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1498,7 +2153,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1507,7 +2162,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1516,7 +2171,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1525,7 +2180,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1534,7 +2189,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1543,7 +2198,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1552,7 +2207,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1561,7 +2216,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1570,7 +2225,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1579,7 +2234,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1588,7 +2243,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1597,7 +2252,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1606,7 +2261,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1615,7 +2270,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1624,7 +2279,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1633,7 +2288,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1642,7 +2297,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1651,7 +2306,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1660,7 +2315,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1669,7 +2324,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1678,7 +2333,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1687,7 +2342,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1696,7 +2351,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1705,7 +2360,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1714,7 +2369,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1723,7 +2378,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1732,7 +2387,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1741,7 +2396,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1750,7 +2405,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1759,7 +2414,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1768,7 +2423,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1777,7 +2432,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1786,7 +2441,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1795,7 +2450,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1804,7 +2459,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1813,7 +2468,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1822,7 +2477,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1831,7 +2486,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1840,7 +2495,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -1849,7 +2504,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1858,7 +2513,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1867,7 +2522,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1876,7 +2531,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -1885,7 +2540,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1894,7 +2549,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -1903,7 +2558,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1912,7 +2567,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1921,7 +2576,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1930,7 +2585,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -1939,7 +2594,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1948,7 +2603,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -1957,7 +2612,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1966,7 +2621,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1975,7 +2630,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -1984,7 +2639,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -1993,7 +2648,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2002,7 +2657,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2011,7 +2666,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2020,7 +2675,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2029,7 +2684,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2038,7 +2693,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2047,7 +2702,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2056,7 +2711,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2065,7 +2720,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2074,7 +2729,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2083,7 +2738,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2092,7 +2747,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2101,7 +2756,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2110,7 +2765,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2119,7 +2774,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2128,7 +2783,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2137,7 +2792,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2146,7 +2801,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2155,7 +2810,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2164,7 +2819,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2174,36 +2829,42 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="21528" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>物品名称</t>
   </si>
@@ -123,7 +123,7 @@
     <t>首立家居专营店</t>
   </si>
   <si>
-    <t>2022.1.18</t>
+    <t>2023.1.18</t>
   </si>
   <si>
     <t>陈礼锐</t>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>米乐其办公旗舰店</t>
+  </si>
+  <si>
+    <t>F车编码器齿轮</t>
+  </si>
+  <si>
+    <t>2023.2.21</t>
+  </si>
+  <si>
+    <t>摄像头碳素杆</t>
+  </si>
+  <si>
+    <t>电源线红和黑（各1m）</t>
+  </si>
+  <si>
+    <t>tof</t>
+  </si>
+  <si>
+    <t>白胶带*6黑胶带*10</t>
+  </si>
+  <si>
+    <t>运费8块，四个室内组A钱</t>
+  </si>
+  <si>
+    <t>除胶剂一瓶</t>
+  </si>
+  <si>
+    <t>保赐利悦安专卖店</t>
+  </si>
+  <si>
+    <t>四个室内组A钱，跟黑胶布一起四人组：23.12 三人组17.34</t>
   </si>
 </sst>
 </file>
@@ -1118,17 +1148,17 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C16" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="21.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="11.8909090909091" customWidth="1"/>
-    <col min="4" max="4" width="12.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="27.3363636363636" customWidth="1"/>
-    <col min="7" max="7" width="23.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="28.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="20.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="47.1759259259259" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1344,57 +1374,129 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17.91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
@@ -2844,7 +2946,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2861,7 +2963,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>物品名称</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>四个室内组A钱，跟黑胶布一起四人组：23.12 三人组17.34</t>
+  </si>
+  <si>
+    <t>140度无畸变工业镜头</t>
+  </si>
+  <si>
+    <t>LuoKe</t>
+  </si>
+  <si>
+    <t>2023.2.23</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1157,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C2:C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1500,12 +1509,24 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D977D-782F-4557-8C50-B82801E3EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21528" windowHeight="10535"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>物品名称</t>
   </si>
@@ -114,9 +129,6 @@
     <t>黄诚钜</t>
   </si>
   <si>
-    <t>等元器件到了一起收款</t>
-  </si>
-  <si>
     <t>砂纸</t>
   </si>
   <si>
@@ -175,19 +187,33 @@
   </si>
   <si>
     <t>2023.2.23</t>
+  </si>
+  <si>
+    <t>群收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄诚钜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,151 +222,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,194 +250,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -548,255 +259,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,62 +275,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1148,29 +577,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="20.4259259259259" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="47.1759259259259" customWidth="1"/>
-    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +643,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +664,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +685,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +706,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +727,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +748,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1335,56 +764,56 @@
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>12.8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>6.2</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -1393,7 +822,7 @@
         <v>7.9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1403,30 +832,30 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1435,7 +864,7 @@
         <v>7.4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1445,9 +874,9 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1456,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1466,9 +895,9 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1477,68 +906,81 @@
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="2">
         <v>17.91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="2">
         <v>186</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4">
+        <f>155.68+201.53</f>
+        <v>357.21000000000004</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1547,7 +989,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1556,7 +998,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1565,7 +1007,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1574,7 +1016,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1583,7 +1025,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1592,7 +1034,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1601,7 +1043,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1610,7 +1052,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1619,7 +1061,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1628,7 +1070,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1637,7 +1079,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1646,7 +1088,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1655,7 +1097,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1664,7 +1106,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1673,7 +1115,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1682,7 +1124,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1691,7 +1133,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1700,7 +1142,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1709,7 +1151,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1718,7 +1160,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1727,7 +1169,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1736,7 +1178,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1745,7 +1187,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1754,7 +1196,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1763,7 +1205,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1772,7 +1214,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1781,7 +1223,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1790,7 +1232,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1799,7 +1241,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1808,7 +1250,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1817,7 +1259,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1826,7 +1268,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1835,7 +1277,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1844,7 +1286,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1853,7 +1295,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1862,7 +1304,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1871,7 +1313,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1880,7 +1322,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1889,7 +1331,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1898,7 +1340,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1907,7 +1349,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1916,7 +1358,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1925,7 +1367,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1934,7 +1376,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1943,7 +1385,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1952,7 +1394,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1961,7 +1403,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1970,7 +1412,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1979,7 +1421,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1988,7 +1430,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1997,7 +1439,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2006,7 +1448,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2015,7 +1457,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2024,7 +1466,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2033,7 +1475,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2042,7 +1484,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2051,7 +1493,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2060,7 +1502,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2069,7 +1511,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2078,7 +1520,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2087,7 +1529,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2096,7 +1538,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2105,7 +1547,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2114,7 +1556,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2123,7 +1565,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2132,7 +1574,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2141,7 +1583,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2150,7 +1592,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2159,7 +1601,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2168,7 +1610,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2177,7 +1619,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2186,7 +1628,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2195,7 +1637,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2204,7 +1646,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2213,7 +1655,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2222,7 +1664,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2231,7 +1673,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2240,7 +1682,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2249,7 +1691,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2258,7 +1700,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2267,7 +1709,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2276,7 +1718,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2285,7 +1727,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2294,7 +1736,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2303,7 +1745,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2312,7 +1754,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2321,7 +1763,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2330,7 +1772,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2339,7 +1781,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2348,7 +1790,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2357,7 +1799,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2366,7 +1808,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2375,7 +1817,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2384,7 +1826,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2393,7 +1835,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2402,7 +1844,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2411,7 +1853,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2420,7 +1862,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2429,7 +1871,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2438,7 +1880,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2447,7 +1889,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2456,7 +1898,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2465,7 +1907,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2474,7 +1916,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2483,7 +1925,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2492,7 +1934,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2501,7 +1943,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2510,7 +1952,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2519,7 +1961,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2528,7 +1970,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2537,7 +1979,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2546,7 +1988,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2555,7 +1997,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2564,7 +2006,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2573,7 +2015,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2582,7 +2024,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2591,7 +2033,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2600,7 +2042,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2609,7 +2051,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2618,7 +2060,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2627,7 +2069,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2636,7 +2078,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2645,7 +2087,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2654,7 +2096,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2663,7 +2105,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2672,7 +2114,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2681,7 +2123,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2690,7 +2132,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2699,7 +2141,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2708,7 +2150,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2717,7 +2159,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2726,7 +2168,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2735,7 +2177,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2744,7 +2186,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2753,7 +2195,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2762,7 +2204,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2771,7 +2213,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2780,7 +2222,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2789,7 +2231,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2798,7 +2240,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2807,7 +2249,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2816,7 +2258,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2825,7 +2267,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2834,7 +2276,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2843,7 +2285,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2852,7 +2294,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2861,7 +2303,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2870,7 +2312,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2879,7 +2321,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2888,7 +2330,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2897,7 +2339,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2906,7 +2348,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2915,7 +2357,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2924,7 +2366,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2933,7 +2375,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2942,7 +2384,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2952,42 +2394,36 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D977D-782F-4557-8C50-B82801E3EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03E652-A9BE-4665-9251-B0B10043F5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>物品名称</t>
   </si>
@@ -278,7 +278,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,7 +588,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -981,12 +983,24 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03E652-A9BE-4665-9251-B0B10043F5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21528" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>物品名称</t>
   </si>
@@ -189,31 +174,35 @@
     <t>2023.2.23</t>
   </si>
   <si>
-    <t>群收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元器件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄诚钜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳箱，毛巾，鞋套</t>
+  </si>
+  <si>
+    <t>杂货店</t>
+  </si>
+  <si>
+    <t>还未群收款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,9 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,12 +221,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +375,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,9 +570,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -275,24 +828,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -579,29 +1176,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="47.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -645,7 +1242,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,7 +1263,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -687,7 +1284,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -708,7 +1305,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -729,7 +1326,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -750,7 +1347,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -767,11 +1364,11 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -792,7 +1389,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -813,7 +1410,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -834,7 +1431,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -842,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -851,11 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -876,7 +1473,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -897,7 +1494,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -918,7 +1515,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -939,7 +1536,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -960,59 +1557,71 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="4">
         <f>155.68+201.53</f>
-        <v>357.21000000000004</v>
+        <v>357.21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="4">
         <v>7.91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1021,7 +1630,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1030,7 +1639,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1039,7 +1648,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1048,7 +1657,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1057,7 +1666,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1066,7 +1675,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1075,7 +1684,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1084,7 +1693,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1093,7 +1702,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1102,7 +1711,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1111,7 +1720,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1120,7 +1729,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1129,7 +1738,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1138,7 +1747,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1147,7 +1756,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1156,7 +1765,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1165,7 +1774,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1174,7 +1783,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1183,7 +1792,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1192,7 +1801,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1201,7 +1810,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1210,7 +1819,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1219,7 +1828,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1228,7 +1837,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1237,7 +1846,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1246,7 +1855,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1255,7 +1864,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1264,7 +1873,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1273,7 +1882,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1282,7 +1891,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1291,7 +1900,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1300,7 +1909,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1309,7 +1918,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1318,7 +1927,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1327,7 +1936,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1336,7 +1945,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1345,7 +1954,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1354,7 +1963,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1363,7 +1972,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1372,7 +1981,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1381,7 +1990,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1390,7 +1999,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1399,7 +2008,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1408,7 +2017,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1417,7 +2026,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1426,7 +2035,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1435,7 +2044,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1444,7 +2053,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1453,7 +2062,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1462,7 +2071,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1471,7 +2080,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1480,7 +2089,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1489,7 +2098,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1498,7 +2107,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1507,7 +2116,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1516,7 +2125,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1525,7 +2134,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1534,7 +2143,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1543,7 +2152,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1552,7 +2161,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1561,7 +2170,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1570,7 +2179,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1579,7 +2188,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1588,7 +2197,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1597,7 +2206,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1606,7 +2215,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1615,7 +2224,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1624,7 +2233,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1633,7 +2242,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1642,7 +2251,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1651,7 +2260,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1660,7 +2269,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1669,7 +2278,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1678,7 +2287,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1687,7 +2296,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1696,7 +2305,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1705,7 +2314,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1714,7 +2323,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1723,7 +2332,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1732,7 +2341,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1741,7 +2350,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1750,7 +2359,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1759,7 +2368,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1768,7 +2377,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1777,7 +2386,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1786,7 +2395,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1795,7 +2404,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1804,7 +2413,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1813,7 +2422,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1822,7 +2431,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1831,7 +2440,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1840,7 +2449,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1849,7 +2458,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1858,7 +2467,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1867,7 +2476,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1876,7 +2485,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1885,7 +2494,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1894,7 +2503,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1903,7 +2512,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1912,7 +2521,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1921,7 +2530,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1930,7 +2539,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1939,7 +2548,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1948,7 +2557,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1957,7 +2566,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1966,7 +2575,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1975,7 +2584,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1984,7 +2593,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1993,7 +2602,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2002,7 +2611,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2011,7 +2620,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2020,7 +2629,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2029,7 +2638,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2038,7 +2647,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2047,7 +2656,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2056,7 +2665,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2065,7 +2674,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2074,7 +2683,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2083,7 +2692,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2092,7 +2701,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2101,7 +2710,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2110,7 +2719,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2119,7 +2728,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2128,7 +2737,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2137,7 +2746,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2146,7 +2755,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2155,7 +2764,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2164,7 +2773,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2173,7 +2782,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2182,7 +2791,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2191,7 +2800,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2200,7 +2809,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2209,7 +2818,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2218,7 +2827,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2227,7 +2836,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2236,7 +2845,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2245,7 +2854,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2254,7 +2863,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2263,7 +2872,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2272,7 +2881,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2281,7 +2890,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2290,7 +2899,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2299,7 +2908,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2308,7 +2917,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2317,7 +2926,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2326,7 +2935,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2335,7 +2944,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2344,7 +2953,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2353,7 +2962,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2362,7 +2971,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2371,7 +2980,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2380,7 +2989,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2389,7 +2998,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2398,7 +3007,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2408,36 +3017,42 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F5C7D-800B-4785-9C0E-93DE9CF19E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21528" windowHeight="10535"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>物品名称</t>
   </si>
@@ -190,19 +205,25 @@
   </si>
   <si>
     <t>还未群收款</t>
+  </si>
+  <si>
+    <t>线材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐飞维修快递费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,155 +235,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,194 +260,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -570,251 +269,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,61 +292,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1176,29 +589,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="47.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +655,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +676,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +697,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +718,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +739,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +760,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +781,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +802,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +823,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +844,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -1452,7 +865,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1473,7 +886,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +907,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +928,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +949,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1557,7 +970,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1566,7 +979,7 @@
       </c>
       <c r="C18" s="4">
         <f>155.68+201.53</f>
-        <v>357.21</v>
+        <v>357.21000000000004</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -1579,7 +992,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1600,7 +1013,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1621,25 +1034,49 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1648,7 +1085,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1657,7 +1094,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1666,7 +1103,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1675,7 +1112,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1684,7 +1121,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1693,7 +1130,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1702,7 +1139,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1711,7 +1148,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1720,7 +1157,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1729,7 +1166,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1738,7 +1175,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1747,7 +1184,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1756,7 +1193,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1765,7 +1202,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1774,7 +1211,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1783,7 +1220,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1792,7 +1229,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1801,7 +1238,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1810,7 +1247,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1819,7 +1256,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1828,7 +1265,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1837,7 +1274,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1846,7 +1283,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1855,7 +1292,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1864,7 +1301,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1873,7 +1310,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1882,7 +1319,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1891,7 +1328,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1900,7 +1337,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1909,7 +1346,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1918,7 +1355,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1927,7 +1364,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1936,7 +1373,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1945,7 +1382,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1954,7 +1391,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1963,7 +1400,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1972,7 +1409,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1981,7 +1418,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1990,7 +1427,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1999,7 +1436,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2008,7 +1445,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2017,7 +1454,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2026,7 +1463,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2035,7 +1472,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2044,7 +1481,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2053,7 +1490,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2062,7 +1499,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2071,7 +1508,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2080,7 +1517,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2089,7 +1526,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2098,7 +1535,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2107,7 +1544,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2116,7 +1553,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2125,7 +1562,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2134,7 +1571,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2143,7 +1580,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2152,7 +1589,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2161,7 +1598,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2170,7 +1607,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2179,7 +1616,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2188,7 +1625,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2197,7 +1634,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2206,7 +1643,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2215,7 +1652,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2224,7 +1661,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2233,7 +1670,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2242,7 +1679,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2251,7 +1688,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2260,7 +1697,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2269,7 +1706,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2278,7 +1715,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2287,7 +1724,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2296,7 +1733,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2305,7 +1742,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2314,7 +1751,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2323,7 +1760,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2332,7 +1769,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2341,7 +1778,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2350,7 +1787,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2359,7 +1796,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2368,7 +1805,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2377,7 +1814,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2386,7 +1823,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2395,7 +1832,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2404,7 +1841,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2413,7 +1850,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2422,7 +1859,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2431,7 +1868,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2440,7 +1877,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2449,7 +1886,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2458,7 +1895,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2467,7 +1904,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2476,7 +1913,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2485,7 +1922,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2494,7 +1931,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2503,7 +1940,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2512,7 +1949,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2521,7 +1958,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2530,7 +1967,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2539,7 +1976,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2548,7 +1985,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2557,7 +1994,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2566,7 +2003,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2575,7 +2012,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2584,7 +2021,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2593,7 +2030,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2602,7 +2039,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2611,7 +2048,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2620,7 +2057,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2629,7 +2066,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2638,7 +2075,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2647,7 +2084,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2656,7 +2093,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2665,7 +2102,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2674,7 +2111,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2683,7 +2120,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2692,7 +2129,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2701,7 +2138,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2710,7 +2147,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2719,7 +2156,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2728,7 +2165,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2737,7 +2174,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2746,7 +2183,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2755,7 +2192,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2764,7 +2201,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2773,7 +2210,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2782,7 +2219,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2791,7 +2228,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2800,7 +2237,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2809,7 +2246,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2818,7 +2255,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2827,7 +2264,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2836,7 +2273,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2845,7 +2282,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2854,7 +2291,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2863,7 +2300,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2872,7 +2309,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2881,7 +2318,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2890,7 +2327,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2899,7 +2336,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2908,7 +2345,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2917,7 +2354,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2926,7 +2363,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2935,7 +2372,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2944,7 +2381,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2953,7 +2390,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2962,7 +2399,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2971,7 +2408,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2980,7 +2417,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2989,7 +2426,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2998,7 +2435,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3007,7 +2444,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3017,42 +2454,36 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F5C7D-800B-4785-9C0E-93DE9CF19E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21528" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>物品名称</t>
   </si>
@@ -207,23 +192,29 @@
     <t>还未群收款</t>
   </si>
   <si>
+    <t>✔</t>
+  </si>
+  <si>
     <t>线材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2023.3.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>逐飞维修快递费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,19 +226,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +387,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,9 +582,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -292,17 +847,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,29 +1188,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="47.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +1254,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -676,7 +1275,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -697,7 +1296,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -718,7 +1317,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -739,7 +1338,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -760,7 +1359,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -781,7 +1380,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -802,7 +1401,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -823,7 +1422,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -844,7 +1443,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -852,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -865,7 +1464,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -886,7 +1485,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -907,7 +1506,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -928,7 +1527,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -949,7 +1548,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -970,7 +1569,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -979,7 +1578,7 @@
       </c>
       <c r="C18" s="4">
         <f>155.68+201.53</f>
-        <v>357.21000000000004</v>
+        <v>357.21</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -992,7 +1591,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1013,7 +1612,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1032,11 +1631,13 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -1045,7 +1646,7 @@
         <v>22.1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>31</v>
@@ -1055,9 +1656,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -1066,7 +1667,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>31</v>
@@ -1076,7 +1677,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1085,7 +1686,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1094,7 +1695,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1103,7 +1704,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1112,7 +1713,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1121,7 +1722,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1130,7 +1731,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1139,7 +1740,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1148,7 +1749,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1157,7 +1758,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1166,7 +1767,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1175,7 +1776,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1184,7 +1785,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1193,7 +1794,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1202,7 +1803,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1211,7 +1812,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1220,7 +1821,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1229,7 +1830,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1238,7 +1839,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1247,7 +1848,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1256,7 +1857,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1265,7 +1866,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1274,7 +1875,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1283,7 +1884,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1292,7 +1893,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1301,7 +1902,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1310,7 +1911,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1319,7 +1920,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1328,7 +1929,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1337,7 +1938,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1346,7 +1947,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1355,7 +1956,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1364,7 +1965,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1373,7 +1974,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1382,7 +1983,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1391,7 +1992,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1400,7 +2001,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1409,7 +2010,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1418,7 +2019,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1427,7 +2028,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1436,7 +2037,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1445,7 +2046,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1454,7 +2055,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1463,7 +2064,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1472,7 +2073,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1481,7 +2082,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1490,7 +2091,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1499,7 +2100,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1508,7 +2109,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1517,7 +2118,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1526,7 +2127,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1535,7 +2136,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1544,7 +2145,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1553,7 +2154,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1562,7 +2163,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1571,7 +2172,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1580,7 +2181,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1589,7 +2190,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1598,7 +2199,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1607,7 +2208,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1616,7 +2217,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1625,7 +2226,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1634,7 +2235,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1643,7 +2244,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1652,7 +2253,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1661,7 +2262,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1670,7 +2271,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1679,7 +2280,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1688,7 +2289,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1697,7 +2298,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1706,7 +2307,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1715,7 +2316,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1724,7 +2325,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1733,7 +2334,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1742,7 +2343,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1751,7 +2352,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1760,7 +2361,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1769,7 +2370,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1778,7 +2379,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1787,7 +2388,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1796,7 +2397,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1805,7 +2406,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1814,7 +2415,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1823,7 +2424,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1832,7 +2433,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1841,7 +2442,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1850,7 +2451,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1859,7 +2460,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1868,7 +2469,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1877,7 +2478,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1886,7 +2487,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1895,7 +2496,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1904,7 +2505,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1913,7 +2514,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1922,7 +2523,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1931,7 +2532,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1940,7 +2541,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1949,7 +2550,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1958,7 +2559,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1967,7 +2568,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1976,7 +2577,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1985,7 +2586,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1994,7 +2595,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2003,7 +2604,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2012,7 +2613,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2021,7 +2622,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2030,7 +2631,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2039,7 +2640,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2048,7 +2649,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2057,7 +2658,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2066,7 +2667,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2075,7 +2676,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2084,7 +2685,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2093,7 +2694,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2102,7 +2703,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2111,7 +2712,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2120,7 +2721,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2129,7 +2730,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2138,7 +2739,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2147,7 +2748,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2156,7 +2757,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2165,7 +2766,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2174,7 +2775,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2183,7 +2784,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2192,7 +2793,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2201,7 +2802,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2210,7 +2811,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2219,7 +2820,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2228,7 +2829,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2237,7 +2838,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2246,7 +2847,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2255,7 +2856,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2264,7 +2865,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2273,7 +2874,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2282,7 +2883,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2291,7 +2892,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2300,7 +2901,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2309,7 +2910,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2318,7 +2919,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2327,7 +2928,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2336,7 +2937,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2345,7 +2946,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2354,7 +2955,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2363,7 +2964,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2372,7 +2973,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2381,7 +2982,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2390,7 +2991,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2399,7 +3000,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2408,7 +3009,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2417,7 +3018,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2426,7 +3027,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2435,7 +3036,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2444,7 +3045,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2454,36 +3055,42 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>物品名称</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>逐飞维修快递费</t>
+  </si>
+  <si>
+    <t>2S航模电池*2</t>
+  </si>
+  <si>
+    <t>海讯模型</t>
+  </si>
+  <si>
+    <t>2023.3.19</t>
   </si>
 </sst>
 </file>
@@ -214,14 +223,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,33 +702,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,97 +741,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,10 +842,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1196,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1678,12 +1680,24 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>126.92</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21528" windowHeight="10535"/>
+    <workbookView windowWidth="21528" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>物品名称</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>2023.3.19</t>
+  </si>
+  <si>
+    <t>偏振片15cm*15cm</t>
+  </si>
+  <si>
+    <t>温州幻影眼镜</t>
+  </si>
+  <si>
+    <t>2023.3.30</t>
+  </si>
+  <si>
+    <t>群收款，累计100才能开发票</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1701,12 +1713,24 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21528" windowHeight="9647"/>
+    <workbookView windowWidth="27075" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>物品名称</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>群收款，累计100才能开发票</t>
+  </si>
+  <si>
+    <t>3*4、3*5内六角螺栓</t>
+  </si>
+  <si>
+    <t>2023.4.1</t>
+  </si>
+  <si>
+    <t>未A钱</t>
   </si>
 </sst>
 </file>
@@ -1210,18 +1219,18 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="47.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="28.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.225" customWidth="1"/>
+    <col min="6" max="6" width="47.225" customWidth="1"/>
+    <col min="7" max="7" width="23.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1734,12 +1743,24 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
@@ -3108,7 +3129,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3125,7 +3146,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CA3BF-691C-4C53-9E86-0991F8E4B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27075" windowHeight="12675"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t>物品名称</t>
   </si>
@@ -232,19 +247,57 @@
   </si>
   <si>
     <t>未A钱</t>
+  </si>
+  <si>
+    <t>龙邱科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.4.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄诚钜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未A钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁二板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器维修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,151 +306,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,194 +333,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -605,251 +342,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,68 +358,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,29 +662,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.225" customWidth="1"/>
-    <col min="6" max="6" width="47.225" customWidth="1"/>
-    <col min="7" max="7" width="23.225" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +728,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +749,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +770,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +791,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +812,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +833,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1398,12 +849,12 @@
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +875,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +896,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +917,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -1482,12 +933,12 @@
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +959,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1529,7 +980,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1001,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1571,7 +1022,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1592,21 +1043,21 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>155.68+201.53</f>
-        <v>357.21</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>357.21000000000004</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1614,20 +1065,20 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>7.91</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1635,7 +1086,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1658,20 +1109,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2">
         <v>22.1</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1679,8 +1130,8 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1689,10 +1140,10 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1700,7 +1151,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +1172,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -1742,7 +1193,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1763,62 +1214,134 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2">
+        <v>162.6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>236.8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>236.8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1826,7 +1349,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1835,7 +1358,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1844,7 +1367,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1853,7 +1376,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1862,7 +1385,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1871,7 +1394,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1880,7 +1403,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1889,7 +1412,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1898,7 +1421,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1907,7 +1430,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1916,7 +1439,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1925,7 +1448,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1934,7 +1457,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1943,7 +1466,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1952,7 +1475,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1961,7 +1484,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1970,7 +1493,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1979,7 +1502,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1988,7 +1511,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1997,7 +1520,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2006,7 +1529,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2015,7 +1538,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2024,7 +1547,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2033,7 +1556,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2042,7 +1565,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2051,7 +1574,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2060,7 +1583,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2069,7 +1592,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2078,7 +1601,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2087,7 +1610,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2096,7 +1619,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2105,7 +1628,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2114,7 +1637,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2123,7 +1646,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2132,7 +1655,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2141,7 +1664,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2150,7 +1673,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2159,7 +1682,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2168,7 +1691,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2177,7 +1700,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2186,7 +1709,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2195,7 +1718,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2204,7 +1727,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2213,7 +1736,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2222,7 +1745,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2231,7 +1754,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2240,7 +1763,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2249,7 +1772,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2258,7 +1781,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2267,7 +1790,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2276,7 +1799,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2285,7 +1808,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2294,7 +1817,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2303,7 +1826,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2312,7 +1835,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2321,7 +1844,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2330,7 +1853,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2339,7 +1862,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2348,7 +1871,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2357,7 +1880,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2366,7 +1889,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2375,7 +1898,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2384,7 +1907,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2393,7 +1916,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2402,7 +1925,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2411,7 +1934,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2420,7 +1943,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2429,7 +1952,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2438,7 +1961,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2447,7 +1970,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2456,7 +1979,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2465,7 +1988,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2474,7 +1997,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2483,7 +2006,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2492,7 +2015,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2501,7 +2024,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2510,7 +2033,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2519,7 +2042,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2528,7 +2051,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2537,7 +2060,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2546,7 +2069,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2555,7 +2078,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2564,7 +2087,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2573,7 +2096,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2582,7 +2105,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2591,7 +2114,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2600,7 +2123,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2609,7 +2132,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2618,7 +2141,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2627,7 +2150,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2636,7 +2159,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2645,7 +2168,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2654,7 +2177,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2663,7 +2186,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2672,7 +2195,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2681,7 +2204,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2690,7 +2213,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2699,7 +2222,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2708,7 +2231,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2717,7 +2240,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2726,7 +2249,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2735,7 +2258,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2744,7 +2267,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2753,7 +2276,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2762,7 +2285,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2771,7 +2294,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2780,7 +2303,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2789,7 +2312,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2798,7 +2321,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2807,7 +2330,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2816,7 +2339,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2825,7 +2348,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2834,7 +2357,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2843,7 +2366,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2852,7 +2375,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2861,7 +2384,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2870,7 +2393,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2879,7 +2402,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2888,7 +2411,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2897,7 +2420,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2906,7 +2429,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2915,7 +2438,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2924,7 +2447,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2933,7 +2456,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2942,7 +2465,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2951,7 +2474,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2960,7 +2483,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2969,7 +2492,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2978,7 +2501,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2987,7 +2510,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2996,7 +2519,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3005,7 +2528,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3014,7 +2537,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3023,7 +2546,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3032,7 +2555,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3041,7 +2564,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3050,7 +2573,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3059,7 +2582,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3068,7 +2591,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3077,7 +2600,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3086,7 +2609,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3095,7 +2618,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3104,7 +2627,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3114,42 +2637,36 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeskTop\3wheel\master\docs\财务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CA3BF-691C-4C53-9E86-0991F8E4B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21528" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>物品名称</t>
   </si>
@@ -250,54 +235,43 @@
   </si>
   <si>
     <t>龙邱科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.4.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄诚钜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未A钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ssd开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>核心板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电磁二板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉立创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编码器维修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普地编码器*2</t>
+  </si>
+  <si>
+    <t>普地编码器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -315,12 +290,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +444,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -342,9 +639,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -361,21 +900,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -662,29 +1245,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="47.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -728,7 +1311,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -749,7 +1332,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -770,7 +1353,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -791,7 +1374,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -812,7 +1395,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -833,7 +1416,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -854,7 +1437,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -875,7 +1458,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -896,7 +1479,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -917,7 +1500,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -925,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -938,7 +1521,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -959,7 +1542,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -980,7 +1563,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1584,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1022,7 +1605,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1626,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1052,7 +1635,7 @@
       </c>
       <c r="C18" s="3">
         <f>155.68+201.53</f>
-        <v>357.21000000000004</v>
+        <v>357.21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
@@ -1065,7 +1648,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1086,7 +1669,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1109,7 +1692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1130,7 +1713,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1734,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -1172,7 +1755,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -1193,7 +1776,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1214,7 +1797,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1228,19 +1811,19 @@
         <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2">
         <v>4.5</v>
@@ -1249,19 +1832,19 @@
         <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2">
         <v>18.8</v>
@@ -1270,16 +1853,16 @@
         <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
@@ -1291,37 +1874,37 @@
         <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>35.479999999999997</v>
+        <v>35.48</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
@@ -1333,23 +1916,35 @@
         <v>73</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2">
+        <v>203.46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1358,7 +1953,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1367,7 +1962,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1376,7 +1971,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1385,7 +1980,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1394,7 +1989,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1403,7 +1998,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1412,7 +2007,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1421,7 +2016,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1430,7 +2025,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1439,7 +2034,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1448,7 +2043,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1457,7 +2052,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1466,7 +2061,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1475,7 +2070,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1484,7 +2079,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1493,7 +2088,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1502,7 +2097,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1511,7 +2106,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1520,7 +2115,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1529,7 +2124,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1538,7 +2133,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1547,7 +2142,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1556,7 +2151,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1565,7 +2160,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1574,7 +2169,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1583,7 +2178,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1592,7 +2187,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1601,7 +2196,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1610,7 +2205,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1619,7 +2214,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1628,7 +2223,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1637,7 +2232,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1646,7 +2241,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1655,7 +2250,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1664,7 +2259,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1673,7 +2268,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1682,7 +2277,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1691,7 +2286,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1700,7 +2295,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1709,7 +2304,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1718,7 +2313,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1727,7 +2322,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1736,7 +2331,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1745,7 +2340,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1754,7 +2349,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1763,7 +2358,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1772,7 +2367,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1781,7 +2376,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1790,7 +2385,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1799,7 +2394,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1808,7 +2403,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1817,7 +2412,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1826,7 +2421,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1835,7 +2430,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1844,7 +2439,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1853,7 +2448,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1862,7 +2457,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1871,7 +2466,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1880,7 +2475,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1889,7 +2484,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1898,7 +2493,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1907,7 +2502,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1916,7 +2511,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1925,7 +2520,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1934,7 +2529,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1943,7 +2538,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1952,7 +2547,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1961,7 +2556,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1970,7 +2565,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1979,7 +2574,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1988,7 +2583,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1997,7 +2592,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2006,7 +2601,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2015,7 +2610,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2024,7 +2619,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2033,7 +2628,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2042,7 +2637,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2051,7 +2646,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2060,7 +2655,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2069,7 +2664,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2078,7 +2673,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2087,7 +2682,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2096,7 +2691,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2105,7 +2700,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2114,7 +2709,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2123,7 +2718,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2132,7 +2727,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2141,7 +2736,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2150,7 +2745,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2159,7 +2754,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2168,7 +2763,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2177,7 +2772,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2186,7 +2781,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2195,7 +2790,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2204,7 +2799,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2213,7 +2808,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2222,7 +2817,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2231,7 +2826,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2240,7 +2835,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2249,7 +2844,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2258,7 +2853,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2267,7 +2862,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2276,7 +2871,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2285,7 +2880,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2294,7 +2889,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2303,7 +2898,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2312,7 +2907,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2321,7 +2916,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2330,7 +2925,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2339,7 +2934,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2348,7 +2943,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2357,7 +2952,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2366,7 +2961,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2375,7 +2970,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2384,7 +2979,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2393,7 +2988,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2402,7 +2997,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2411,7 +3006,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2420,7 +3015,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2429,7 +3024,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2438,7 +3033,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2447,7 +3042,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2456,7 +3051,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2465,7 +3060,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2474,7 +3069,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2483,7 +3078,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2492,7 +3087,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2501,7 +3096,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2510,7 +3105,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2519,7 +3114,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2528,7 +3123,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2537,7 +3132,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2546,7 +3141,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2555,7 +3150,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2564,7 +3159,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2573,7 +3168,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2582,7 +3177,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2591,7 +3186,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2600,7 +3195,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2609,7 +3204,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2618,7 +3213,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2627,7 +3222,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2637,36 +3232,42 @@
       <c r="G175" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>物品名称</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>普地编码器</t>
+  </si>
+  <si>
+    <t>龙邱烧录器</t>
+  </si>
+  <si>
+    <t>2023.4.22</t>
   </si>
 </sst>
 </file>
@@ -271,14 +277,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,33 +756,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,97 +795,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1945,12 +1944,24 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>物品名称</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>2023.4.22</t>
+  </si>
+  <si>
+    <t>PVC赛道</t>
+  </si>
+  <si>
+    <t>逐飞科技、泰庆</t>
+  </si>
+  <si>
+    <t>2023.4.25</t>
+  </si>
+  <si>
+    <t>室内15人A钱</t>
+  </si>
+  <si>
+    <t>陀螺仪、电源线等物资</t>
+  </si>
+  <si>
+    <t>群收款（没运费）</t>
   </si>
 </sst>
 </file>
@@ -886,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +918,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1965,21 +1986,45 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2337</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>物品名称</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>群收款（没运费）</t>
+  </si>
+  <si>
+    <t>法兰，车轴，齿轮，摄像头三通*2</t>
+  </si>
+  <si>
+    <t>2023.4.28</t>
+  </si>
+  <si>
+    <t>M2*8、M2.5*8基米螺丝</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2028,21 +2037,45 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>193.2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>物品名称</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>M2*8、M2.5*8基米螺丝</t>
+  </si>
+  <si>
+    <t>裁判系统</t>
+  </si>
+  <si>
+    <t>2023.4.29</t>
+  </si>
+  <si>
+    <t>许永鹏</t>
+  </si>
+  <si>
+    <t>18个成员A钱每个人28.37，永鹏8块运费</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1295,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2079,12 +2091,24 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>518.5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>物品名称</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>18个成员A钱每个人28.37，永鹏8块运费</t>
+  </si>
+  <si>
+    <t>魔术贴纳米胶</t>
+  </si>
+  <si>
+    <t>3j旗舰店</t>
+  </si>
+  <si>
+    <t>2023.5.5</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2112,12 +2121,24 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
   <si>
     <t>物品名称</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>2023.5.5</t>
+  </si>
+  <si>
+    <t>导热硅胶片</t>
+  </si>
+  <si>
+    <t>zave</t>
+  </si>
+  <si>
+    <t>2023.5.22</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2142,12 +2151,24 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
   <si>
     <t>物品名称</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>2023.5.22</t>
+  </si>
+  <si>
+    <t>美纹纸胶带</t>
+  </si>
+  <si>
+    <t>2023.6.7</t>
+  </si>
+  <si>
+    <t>软包还面材料</t>
+  </si>
+  <si>
+    <t>南京永盛海绵厂</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1324,8 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2172,21 +2184,45 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="2">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2">
+        <v>14.79</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
   <si>
     <t>物品名称</t>
   </si>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>南京永盛海绵厂</t>
+  </si>
+  <si>
+    <t>电机*2、电机齿轮*2</t>
+  </si>
+  <si>
+    <t>博思威龙</t>
+  </si>
+  <si>
+    <t>2023.6.24</t>
+  </si>
+  <si>
+    <t>未A钱运费到付14</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1367,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2298,12 +2310,24 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
   <si>
     <t>物品名称</t>
   </si>
@@ -352,6 +352,42 @@
   </si>
   <si>
     <t>未A钱运费到付14</t>
+  </si>
+  <si>
+    <t>闲鱼轮胎</t>
+  </si>
+  <si>
+    <t>闲鱼</t>
+  </si>
+  <si>
+    <t>2023.6.27</t>
+  </si>
+  <si>
+    <t>易峰</t>
+  </si>
+  <si>
+    <t>群收款了轮胎钱</t>
+  </si>
+  <si>
+    <t>寄轮毂给闲鱼轮胎卖家</t>
+  </si>
+  <si>
+    <t>顺丰特快</t>
+  </si>
+  <si>
+    <t>2023.6.28</t>
+  </si>
+  <si>
+    <t>群收款、开不了票</t>
+  </si>
+  <si>
+    <t>去长沙车票</t>
+  </si>
+  <si>
+    <t>铁路12306</t>
+  </si>
+  <si>
+    <t>2023.6.30</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1403,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2331,30 +2367,66 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1">
+        <v>942</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <t>物品名称</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>2023.6.30</t>
+  </si>
+  <si>
+    <t>蓝电池*2</t>
+  </si>
+  <si>
+    <t>航模电池批发店</t>
+  </si>
+  <si>
+    <t>2023.7.2</t>
+  </si>
+  <si>
+    <t>群收款，还有7块钱开票税费等开票再说</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1415,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2430,12 +2442,24 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="1">
+        <v>113.68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
   <si>
     <t>物品名称</t>
   </si>
@@ -400,6 +400,30 @@
   </si>
   <si>
     <t>群收款，还有7块钱开票税费等开票再说</t>
+  </si>
+  <si>
+    <t>亚克力盒</t>
+  </si>
+  <si>
+    <t>亚克力展示盒加工</t>
+  </si>
+  <si>
+    <t>2023.7.7</t>
+  </si>
+  <si>
+    <t>未群收款</t>
+  </si>
+  <si>
+    <t>电磁信号发生器转接头*4</t>
+  </si>
+  <si>
+    <t>联物电子科技</t>
+  </si>
+  <si>
+    <t>2023.7.8</t>
+  </si>
+  <si>
+    <t>电协充电电磁、我们和独轮A7.5一个，队内未群收款</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1440,7 @@
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2463,21 +2487,45 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21528" windowHeight="9647"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="140">
   <si>
     <t>物品名称</t>
   </si>
@@ -424,12 +424,27 @@
   </si>
   <si>
     <t>电协充电电磁、我们和独轮A7.5一个，队内未群收款</t>
+  </si>
+  <si>
+    <t>尼龙柱和垫片</t>
+  </si>
+  <si>
+    <t>2023.7.12</t>
+  </si>
+  <si>
+    <t>两个TOF和芯片叫电协买的</t>
+  </si>
+  <si>
+    <t>92.6+6.3</t>
+  </si>
+  <si>
+    <t>2023.7.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -442,34 +457,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,14 +473,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,6 +512,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,13 +577,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,31 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,19 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,31 +661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +697,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -742,7 +721,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +805,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -807,21 +828,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,6 +860,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,152 +933,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,57 +1101,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1440,7 +1464,7 @@
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2444,26 +2468,31 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+    <row r="46" hidden="1" spans="1:8">
+      <c r="A46" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="8">
         <v>942</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
@@ -2529,21 +2558,45 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">

--- a/docs/财务/第十八届智能车队内开销.xlsx
+++ b/docs/财务/第十八届智能车队内开销.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
   <si>
     <t>物品名称</t>
   </si>
@@ -69,6 +69,9 @@
     <t>队内A钱</t>
   </si>
   <si>
+    <t>✔</t>
+  </si>
+  <si>
     <t>170度广角摄像头镜头</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
   </si>
   <si>
     <t>2023.2.21</t>
-  </si>
-  <si>
-    <t>✔</t>
   </si>
   <si>
     <t>已报销</t>
@@ -1158,13 +1158,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1460,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1541,11 +1534,13 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1560,252 +1555,260 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>428</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>8.74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>21.6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>45.36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>12.8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>6.2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" hidden="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>7.9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>5.1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>7.4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
@@ -1814,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>42</v>
@@ -1831,7 +1834,7 @@
         <v>17.91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1858,9 +1861,11 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1877,10 +1882,10 @@
         <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1898,10 +1903,10 @@
         <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1925,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1942,10 +1947,10 @@
         <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1954,7 +1959,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>15</v>
@@ -1963,10 +1968,10 @@
         <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1987,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -2017,7 +2022,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -2031,7 +2036,9 @@
       <c r="F25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
@@ -2047,7 +2054,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>72</v>
@@ -2068,7 +2075,7 @@
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>72</v>
@@ -2089,7 +2096,7 @@
         <v>74</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>72</v>
@@ -2101,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
         <v>236.8</v>
@@ -2110,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>72</v>
@@ -2122,7 +2129,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>35.48</v>
@@ -2131,19 +2138,21 @@
         <v>74</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>236.8</v>
@@ -2152,7 +2161,7 @@
         <v>74</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>72</v>
@@ -2178,7 +2187,9 @@
       <c r="F32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
@@ -2197,11 +2208,11 @@
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" hidden="1" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
@@ -2221,18 +2232,18 @@
         <v>87</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
         <v>88.5</v>
@@ -2247,7 +2258,7 @@
         <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>42</v>
@@ -2270,16 +2281,18 @@
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <v>12.25</v>
@@ -2293,14 +2306,16 @@
       <c r="F37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" hidden="1" spans="1:8">
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4">
         <v>518.5</v>
@@ -2315,7 +2330,7 @@
         <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>42</v>
@@ -2340,7 +2355,9 @@
       <c r="F39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
@@ -2361,7 +2378,9 @@
       <c r="F40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
@@ -2380,9 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
@@ -2401,9 +2422,11 @@
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
@@ -2468,7 +2491,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" hidden="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>120</v>
       </c>
@@ -2485,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>42</v>
@@ -2555,14 +2578,16 @@
       <c r="F49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1">
         <v>47.9</v>
@@ -2576,14 +2601,16 @@
       <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>138</v>
@@ -3716,10 +3743,7 @@
       <c r="G175" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A175">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
+  <autoFilter ref="A1:H51">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
